--- a/simpsons_locations.xlsx
+++ b/simpsons_locations.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="simpsons_locations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8921" uniqueCount="8921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8926" uniqueCount="8924">
   <si>
     <t>id</t>
   </si>
@@ -26782,6 +26782,15 @@
   </si>
   <si>
     <t>playdude mansion</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>[Control + Shift + Enter in formula]</t>
+  </si>
+  <si>
+    <t>normalized</t>
   </si>
 </sst>
 </file>
@@ -27265,8 +27274,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -27600,10 +27610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4460"/>
+  <dimension ref="A1:F4460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27611,9 +27621,11 @@
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="85.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27624,7 +27636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27634,8 +27646,14 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>8921</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -27645,8 +27663,15 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>MAX(LEN(A2:A4500))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27656,8 +27681,15 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="array" ref="F4">MAX(LEN(B2:B4501))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -27667,8 +27699,15 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>8923</v>
+      </c>
+      <c r="F5">
+        <f t="array" ref="F5">MAX(LEN(C2:C4502))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -27679,7 +27718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -27690,7 +27729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -27701,7 +27740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -27712,7 +27751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -27723,7 +27762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -27734,7 +27773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -27745,7 +27784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -27756,7 +27795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -27767,7 +27806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -27778,7 +27817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
